--- a/phantasm-adventure/checklist.xlsx
+++ b/phantasm-adventure/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/phantasm-adventure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D48F9681-4EBB-1B48-A9DD-F91CFB79B501}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC9089A-1371-234F-A630-48143B40E85C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{A6382568-3C30-624B-B7E3-FBEED6E5F4C6}"/>
   </bookViews>
@@ -83,9 +83,6 @@
     <t>Phantasm Adventure</t>
   </si>
   <si>
-    <t>Daihonkaiga</t>
-  </si>
-  <si>
     <t>アドバンスド・ファンタズム・アドベンチャー</t>
   </si>
   <si>
@@ -138,6 +135,9 @@
   </si>
   <si>
     <t>Phantasm Quest</t>
+  </si>
+  <si>
+    <t>Dainihonkaiga</t>
   </si>
 </sst>
 </file>
@@ -501,7 +501,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D2" sqref="D2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -543,13 +543,13 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -557,104 +557,104 @@
         <v>1990</v>
       </c>
       <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -662,19 +662,19 @@
         <v>1989</v>
       </c>
       <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
         <v>32</v>
       </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
